--- a/PaintPartner/Tests/testscenarios.xlsx
+++ b/PaintPartner/Tests/testscenarios.xlsx
@@ -2043,9 +2043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
